--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2102,28 +2102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.2600558552914</v>
+        <v>318.6082895691042</v>
       </c>
       <c r="AB2" t="n">
-        <v>353.362802050753</v>
+        <v>435.9339177941621</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.638352170836</v>
+        <v>394.3289965169828</v>
       </c>
       <c r="AD2" t="n">
-        <v>258260.0558552914</v>
+        <v>318608.2895691042</v>
       </c>
       <c r="AE2" t="n">
-        <v>353362.802050753</v>
+        <v>435933.9177941621</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.378453023031138e-06</v>
+        <v>3.428931084194907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.77777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>319638.3521708359</v>
+        <v>394328.9965169829</v>
       </c>
     </row>
     <row r="3">
@@ -2208,28 +2208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.4356844851757</v>
+        <v>212.4319312620004</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.8293784873546</v>
+        <v>290.6587401879107</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.7039079791646</v>
+        <v>262.9186779665661</v>
       </c>
       <c r="AD3" t="n">
-        <v>169435.6844851757</v>
+        <v>212431.9312620004</v>
       </c>
       <c r="AE3" t="n">
-        <v>231829.3784873546</v>
+        <v>290658.7401879107</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.259764191099622e-06</v>
+        <v>4.699486033052766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.322916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>209703.9079791646</v>
+        <v>262918.6779665661</v>
       </c>
     </row>
     <row r="4">
@@ -2314,28 +2314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.6631768704015</v>
+        <v>179.1113967063144</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.9345406829335</v>
+        <v>245.0681148106067</v>
       </c>
       <c r="AC4" t="n">
-        <v>179.0439459230831</v>
+        <v>221.6791578884129</v>
       </c>
       <c r="AD4" t="n">
-        <v>144663.1768704015</v>
+        <v>179111.3967063144</v>
       </c>
       <c r="AE4" t="n">
-        <v>197934.5406829336</v>
+        <v>245068.1148106067</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.592153106105011e-06</v>
+        <v>5.178679303496803e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.460648148148147</v>
       </c>
       <c r="AH4" t="n">
-        <v>179043.9459230831</v>
+        <v>221679.1578884129</v>
       </c>
     </row>
     <row r="5">
@@ -2420,28 +2420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.9215265232588</v>
+        <v>173.3697463591717</v>
       </c>
       <c r="AB5" t="n">
-        <v>190.0785613742408</v>
+        <v>237.2121355019139</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.9377302536732</v>
+        <v>214.572942219003</v>
       </c>
       <c r="AD5" t="n">
-        <v>138921.5265232588</v>
+        <v>173369.7463591717</v>
       </c>
       <c r="AE5" t="n">
-        <v>190078.5613742408</v>
+        <v>237212.1355019139</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.705382763357598e-06</v>
+        <v>5.341918470992038e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.200231481481483</v>
       </c>
       <c r="AH5" t="n">
-        <v>171937.7302536732</v>
+        <v>214572.942219003</v>
       </c>
     </row>
     <row r="6">
@@ -2526,28 +2526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>139.2622694324831</v>
+        <v>173.7104892683961</v>
       </c>
       <c r="AB6" t="n">
-        <v>190.5447808551575</v>
+        <v>237.6783549828307</v>
       </c>
       <c r="AC6" t="n">
-        <v>172.3594544016746</v>
+        <v>214.9946663670044</v>
       </c>
       <c r="AD6" t="n">
-        <v>139262.2694324831</v>
+        <v>173710.489268396</v>
       </c>
       <c r="AE6" t="n">
-        <v>190544.7808551575</v>
+        <v>237678.3549828307</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.704332395479559e-06</v>
+        <v>5.340404193000431e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.206018518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>172359.4544016746</v>
+        <v>214994.6663670044</v>
       </c>
     </row>
   </sheetData>
@@ -2823,28 +2823,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.1916079433244</v>
+        <v>249.27881522689</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.4886986365533</v>
+        <v>341.074272398441</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.4329351176515</v>
+        <v>308.5226225415832</v>
       </c>
       <c r="AD2" t="n">
-        <v>207191.6079433244</v>
+        <v>249278.81522689</v>
       </c>
       <c r="AE2" t="n">
-        <v>283488.6986365533</v>
+        <v>341074.272398441</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.809815341898054e-06</v>
+        <v>4.113463958227848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.19212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>256432.9351176515</v>
+        <v>308522.6225415832</v>
       </c>
     </row>
     <row r="3">
@@ -2929,28 +2929,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.4738506972002</v>
+        <v>181.4756276176431</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.8342756758499</v>
+        <v>248.3029598459915</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.6213202429886</v>
+        <v>224.6052738537551</v>
       </c>
       <c r="AD3" t="n">
-        <v>139473.8506972002</v>
+        <v>181475.6276176431</v>
       </c>
       <c r="AE3" t="n">
-        <v>190834.2756758498</v>
+        <v>248302.9598459915</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.645784031054351e-06</v>
+        <v>5.337290670885953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.622685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>172621.3202429886</v>
+        <v>224605.2738537551</v>
       </c>
     </row>
     <row r="4">
@@ -3035,28 +3035,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.6482736485881</v>
+        <v>165.2327165225792</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.1269759178506</v>
+        <v>226.0786922990728</v>
       </c>
       <c r="AC4" t="n">
-        <v>162.9359101460999</v>
+        <v>204.5020592095518</v>
       </c>
       <c r="AD4" t="n">
-        <v>131648.2736485881</v>
+        <v>165232.7165225792</v>
       </c>
       <c r="AE4" t="n">
-        <v>180126.9759178506</v>
+        <v>226078.6922990728</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.828113979764855e-06</v>
+        <v>5.604214856736385e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.211805555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>162935.9101460999</v>
+        <v>204502.0592095518</v>
       </c>
     </row>
   </sheetData>
@@ -3332,28 +3332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.8449884197005</v>
+        <v>153.5960912363276</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.1359797590728</v>
+        <v>210.1569482107557</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.1391423926427</v>
+        <v>190.0998640307105</v>
       </c>
       <c r="AD2" t="n">
-        <v>114844.9884197005</v>
+        <v>153596.0912363276</v>
       </c>
       <c r="AE2" t="n">
-        <v>157135.9797590728</v>
+        <v>210156.9482107557</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.041671244238115e-06</v>
+        <v>6.252964290099819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.680555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>142139.1423926427</v>
+        <v>190099.8640307105</v>
       </c>
     </row>
     <row r="3">
@@ -3438,28 +3438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.2698454952982</v>
+        <v>154.0209483119253</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.7172879532765</v>
+        <v>210.7382564049595</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.664971348663</v>
+        <v>190.6256929867308</v>
       </c>
       <c r="AD3" t="n">
-        <v>115269.8454952982</v>
+        <v>154020.9483119253</v>
       </c>
       <c r="AE3" t="n">
-        <v>157717.2879532765</v>
+        <v>210738.2564049595</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.041974363519047e-06</v>
+        <v>6.253433253042317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.680555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>142664.971348663</v>
+        <v>190625.6929867308</v>
       </c>
     </row>
   </sheetData>
@@ -3735,28 +3735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.8575974422629</v>
+        <v>171.9435489977919</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.359334902156</v>
+        <v>235.2607493526881</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.0962685536616</v>
+        <v>212.807793625071</v>
       </c>
       <c r="AD2" t="n">
-        <v>139857.5974422629</v>
+        <v>171943.5489977919</v>
       </c>
       <c r="AE2" t="n">
-        <v>191359.334902156</v>
+        <v>235260.7493526881</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.665057329260569e-06</v>
+        <v>5.538979035696221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.155092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>173096.2685536616</v>
+        <v>212807.793625071</v>
       </c>
     </row>
     <row r="3">
@@ -3841,28 +3841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.7505647004208</v>
+        <v>152.7511754013781</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.2162497619881</v>
+        <v>209.0008970903225</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.4482427672125</v>
+        <v>189.0541448066831</v>
       </c>
       <c r="AD3" t="n">
-        <v>120750.5647004208</v>
+        <v>152751.1754013781</v>
       </c>
       <c r="AE3" t="n">
-        <v>165216.2497619881</v>
+        <v>209000.8970903225</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.00491927738012e-06</v>
+        <v>6.052610347991373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.37962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>149448.2427672125</v>
+        <v>189054.1448066831</v>
       </c>
     </row>
   </sheetData>
@@ -4138,28 +4138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.3930522905126</v>
+        <v>149.6283883476279</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.3588413935319</v>
+        <v>204.7281620757419</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.7681028465522</v>
+        <v>185.1891936250715</v>
       </c>
       <c r="AD2" t="n">
-        <v>119393.0522905126</v>
+        <v>149628.3883476279</v>
       </c>
       <c r="AE2" t="n">
-        <v>163358.8413935319</v>
+        <v>204728.1620757419</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.967989691022844e-06</v>
+        <v>6.271360052464577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.184027777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>147768.1028465522</v>
+        <v>185189.1936250715</v>
       </c>
     </row>
   </sheetData>
@@ -4435,28 +4435,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.6135716962185</v>
+        <v>268.4586676108632</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.7484892278467</v>
+        <v>367.3169925857225</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.3317913086581</v>
+        <v>332.2607743459772</v>
       </c>
       <c r="AD2" t="n">
-        <v>217613.5716962185</v>
+        <v>268458.6676108632</v>
       </c>
       <c r="AE2" t="n">
-        <v>297748.4892278467</v>
+        <v>367316.9925857225</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.687498738187835e-06</v>
+        <v>3.91806756186289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.59143518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>269331.7913086581</v>
+        <v>332260.7743459772</v>
       </c>
     </row>
     <row r="3">
@@ -4541,28 +4541,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.6256833913165</v>
+        <v>186.911255798946</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.8832404507539</v>
+        <v>255.7402261266372</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.9975417130623</v>
+        <v>231.3327378788471</v>
       </c>
       <c r="AD3" t="n">
-        <v>144625.6833913165</v>
+        <v>186911.255798946</v>
       </c>
       <c r="AE3" t="n">
-        <v>197883.2404507539</v>
+        <v>255740.2261266372</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.544063246368347e-06</v>
+        <v>5.166841213904896e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.79050925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>178997.5417130623</v>
+        <v>231332.7378788471</v>
       </c>
     </row>
     <row r="4">
@@ -4647,28 +4647,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.2523873822846</v>
+        <v>167.0638666460249</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.3217950967964</v>
+        <v>228.5841526826118</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.9212588630558</v>
+        <v>206.7684019705225</v>
       </c>
       <c r="AD4" t="n">
-        <v>133252.3873822846</v>
+        <v>167063.8666460249</v>
       </c>
       <c r="AE4" t="n">
-        <v>182321.7950967964</v>
+        <v>228584.1526826118</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.804171558582821e-06</v>
+        <v>5.546049555913504e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.188657407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>164921.2588630558</v>
+        <v>206768.4019705225</v>
       </c>
     </row>
     <row r="5">
@@ -4753,28 +4753,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.6452140508771</v>
+        <v>167.4566933146173</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.8592778750539</v>
+        <v>229.1216354608693</v>
       </c>
       <c r="AC5" t="n">
-        <v>165.4074450393184</v>
+        <v>207.254588146785</v>
       </c>
       <c r="AD5" t="n">
-        <v>133645.2140508771</v>
+        <v>167456.6933146173</v>
       </c>
       <c r="AE5" t="n">
-        <v>182859.2778750539</v>
+        <v>229121.6354608693</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.799810396651674e-06</v>
+        <v>5.539691477730374e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.200231481481483</v>
       </c>
       <c r="AH5" t="n">
-        <v>165407.4450393184</v>
+        <v>207254.588146785</v>
       </c>
     </row>
   </sheetData>
@@ -5050,28 +5050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.7967408409962</v>
+        <v>154.9735507462147</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.1746976440138</v>
+        <v>212.0416490814069</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.7924107110224</v>
+        <v>191.8046916954617</v>
       </c>
       <c r="AD2" t="n">
-        <v>117796.7408409962</v>
+        <v>154973.5507462147</v>
       </c>
       <c r="AE2" t="n">
-        <v>161174.6976440138</v>
+        <v>212041.6490814069</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.875388495168668e-06</v>
+        <v>6.209282689018961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.623842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>145792.4107110224</v>
+        <v>191804.6916954617</v>
       </c>
     </row>
   </sheetData>
@@ -5347,28 +5347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.0155980829436</v>
+        <v>213.0964108467869</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.3593300895739</v>
+        <v>291.5679104705856</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.8969659547874</v>
+        <v>263.7410783134912</v>
       </c>
       <c r="AD2" t="n">
-        <v>172015.5980829436</v>
+        <v>213096.410846787</v>
       </c>
       <c r="AE2" t="n">
-        <v>235359.3300895739</v>
+        <v>291567.9104705856</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.200498941687146e-06</v>
+        <v>4.752239080984234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.12152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>212896.9659547874</v>
+        <v>263741.0783134912</v>
       </c>
     </row>
     <row r="3">
@@ -5453,28 +5453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.4072618329499</v>
+        <v>159.2548617748205</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.9559923345752</v>
+        <v>217.8995277088547</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.4493151714713</v>
+        <v>197.103502608292</v>
       </c>
       <c r="AD3" t="n">
-        <v>126407.2618329499</v>
+        <v>159254.8617748205</v>
       </c>
       <c r="AE3" t="n">
-        <v>172955.9923345752</v>
+        <v>217899.5277088547</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.923712288661365e-06</v>
+        <v>5.82609749931214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.258101851851853</v>
       </c>
       <c r="AH3" t="n">
-        <v>156449.3151714713</v>
+        <v>197103.502608292</v>
       </c>
     </row>
     <row r="4">
@@ -5559,28 +5559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.0150457116204</v>
+        <v>158.862645653491</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.4193449340184</v>
+        <v>217.3628803082979</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.9638846456341</v>
+        <v>196.6180720824547</v>
       </c>
       <c r="AD4" t="n">
-        <v>126015.0457116204</v>
+        <v>158862.645653491</v>
       </c>
       <c r="AE4" t="n">
-        <v>172419.3449340184</v>
+        <v>217362.8803082979</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.938378070155733e-06</v>
+        <v>5.84787388519464e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.223379629629632</v>
       </c>
       <c r="AH4" t="n">
-        <v>155963.8846456341</v>
+        <v>196618.0720824547</v>
       </c>
     </row>
   </sheetData>
@@ -5856,28 +5856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.0916016666302</v>
+        <v>239.1572975419381</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.7234715328722</v>
+        <v>327.2255653720509</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.0312665305233</v>
+        <v>295.9956166770051</v>
       </c>
       <c r="AD2" t="n">
-        <v>189091.6016666302</v>
+        <v>239157.2975419381</v>
       </c>
       <c r="AE2" t="n">
-        <v>258723.4715328722</v>
+        <v>327225.5653720509</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.938516904751707e-06</v>
+        <v>4.320920082423933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.79861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>234031.2665305233</v>
+        <v>295995.6166770051</v>
       </c>
     </row>
     <row r="3">
@@ -5962,28 +5962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.6513869465626</v>
+        <v>168.0001600871283</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.2359680201454</v>
+        <v>229.8652306750803</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.6527458091596</v>
+        <v>207.9272156773944</v>
       </c>
       <c r="AD3" t="n">
-        <v>134651.3869465626</v>
+        <v>168000.1600871283</v>
       </c>
       <c r="AE3" t="n">
-        <v>184235.9680201454</v>
+        <v>229865.2306750804</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.738330112075498e-06</v>
+        <v>5.496999397851686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.489583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>166652.7458091596</v>
+        <v>207927.2156773944</v>
       </c>
     </row>
     <row r="4">
@@ -6068,28 +6068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.9903302495951</v>
+        <v>163.3391033901608</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.8585046160489</v>
+        <v>223.4877672709839</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.883938561522</v>
+        <v>202.1584084297568</v>
       </c>
       <c r="AD4" t="n">
-        <v>129990.3302495951</v>
+        <v>163339.1033901608</v>
       </c>
       <c r="AE4" t="n">
-        <v>177858.5046160489</v>
+        <v>223487.7672709839</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.86129391999019e-06</v>
+        <v>5.677810604406513e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.217592592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>160883.938561522</v>
+        <v>202158.4084297568</v>
       </c>
     </row>
   </sheetData>
@@ -6365,28 +6365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.3106856873786</v>
+        <v>297.7174055913362</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.0131466178498</v>
+        <v>407.350088695025</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.8490849056647</v>
+        <v>368.4731679494112</v>
       </c>
       <c r="AD2" t="n">
-        <v>246310.6856873786</v>
+        <v>297717.4055913362</v>
       </c>
       <c r="AE2" t="n">
-        <v>337013.1466178498</v>
+        <v>407350.088695025</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.483279329121299e-06</v>
+        <v>3.592740259743301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.33796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>304849.0849056647</v>
+        <v>368473.1679494112</v>
       </c>
     </row>
     <row r="3">
@@ -6471,28 +6471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.6950189517891</v>
+        <v>199.0230892936564</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.3429907611756</v>
+        <v>272.312171050474</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.8365719938677</v>
+        <v>246.323079638029</v>
       </c>
       <c r="AD3" t="n">
-        <v>164695.0189517891</v>
+        <v>199023.0892936564</v>
       </c>
       <c r="AE3" t="n">
-        <v>225342.9907611756</v>
+        <v>272312.171050474</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.335214229535912e-06</v>
+        <v>4.825296251131925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.184027777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>203836.5719938677</v>
+        <v>246323.079638029</v>
       </c>
     </row>
     <row r="4">
@@ -6577,28 +6577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.9736756801672</v>
+        <v>174.2164051674629</v>
       </c>
       <c r="AB4" t="n">
-        <v>191.5181582682671</v>
+        <v>238.3705714353678</v>
       </c>
       <c r="AC4" t="n">
-        <v>173.2399340406211</v>
+        <v>215.6208186528435</v>
       </c>
       <c r="AD4" t="n">
-        <v>139973.6756801672</v>
+        <v>174216.4051674629</v>
       </c>
       <c r="AE4" t="n">
-        <v>191518.1582682671</v>
+        <v>238370.5714353678</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.681853745344952e-06</v>
+        <v>5.326804772328265e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.32175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>173239.934040621</v>
+        <v>215620.8186528435</v>
       </c>
     </row>
     <row r="5">
@@ -6683,28 +6683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.8967786368353</v>
+        <v>171.1395081241309</v>
       </c>
       <c r="AB5" t="n">
-        <v>187.3082119904651</v>
+        <v>234.1606251575659</v>
       </c>
       <c r="AC5" t="n">
-        <v>169.4317791268744</v>
+        <v>211.8126637390969</v>
       </c>
       <c r="AD5" t="n">
-        <v>136896.7786368353</v>
+        <v>171139.508124131</v>
       </c>
       <c r="AE5" t="n">
-        <v>187308.2119904651</v>
+        <v>234160.6251575659</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.744585545319557e-06</v>
+        <v>5.41756341582516e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.182870370370372</v>
       </c>
       <c r="AH5" t="n">
-        <v>169431.7791268744</v>
+        <v>211812.6637390969</v>
       </c>
     </row>
   </sheetData>
@@ -6980,28 +6980,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.6680606077592</v>
+        <v>187.9765145731611</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.0459551784987</v>
+        <v>257.1977601774179</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.7629727895993</v>
+        <v>232.6511669254837</v>
       </c>
       <c r="AD2" t="n">
-        <v>147668.0606077592</v>
+        <v>187976.5145731611</v>
       </c>
       <c r="AE2" t="n">
-        <v>202045.9551784987</v>
+        <v>257197.7601774179</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.499777492845886e-06</v>
+        <v>5.255562013551996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.467592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>182762.9727895993</v>
+        <v>232651.1669254837</v>
       </c>
     </row>
     <row r="3">
@@ -7086,28 +7086,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.8104974393194</v>
+        <v>155.1084830260941</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.0347406131663</v>
+        <v>212.22626937953</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.997740807332</v>
+        <v>191.9716920914481</v>
       </c>
       <c r="AD3" t="n">
-        <v>122810.4974393194</v>
+        <v>155108.4830260941</v>
       </c>
       <c r="AE3" t="n">
-        <v>168034.7406131663</v>
+        <v>212226.26937953</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.972091963439416e-06</v>
+        <v>5.964829387028298e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.344907407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>151997.740807332</v>
+        <v>191971.6920914481</v>
       </c>
     </row>
   </sheetData>
@@ -7383,28 +7383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.2143817726628</v>
+        <v>157.4200008784928</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.7461323917372</v>
+        <v>215.3889900821507</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.309308528437</v>
+        <v>194.8325671691181</v>
       </c>
       <c r="AD2" t="n">
-        <v>118214.3817726628</v>
+        <v>157420.0008784928</v>
       </c>
       <c r="AE2" t="n">
-        <v>161746.1323917372</v>
+        <v>215388.9900821507</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.990189532359239e-06</v>
+        <v>6.11994022267788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.65162037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>146309.308528437</v>
+        <v>194832.5671691181</v>
       </c>
     </row>
     <row r="3">
@@ -7489,28 +7489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.2324646795152</v>
+        <v>148.7505735024081</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.4026301057685</v>
+        <v>203.527097078055</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.0940282150234</v>
+        <v>184.1027565850582</v>
       </c>
       <c r="AD3" t="n">
-        <v>117232.4646795152</v>
+        <v>148750.5735024081</v>
       </c>
       <c r="AE3" t="n">
-        <v>160402.6301057685</v>
+        <v>203527.0970780551</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.033262221936324e-06</v>
+        <v>6.186002820282326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.559027777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>145094.0282150234</v>
+        <v>184102.7565850582</v>
       </c>
     </row>
   </sheetData>
@@ -12719,28 +12719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.2624766037238</v>
+        <v>151.5184361996087</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.9707172769606</v>
+        <v>207.3142089298471</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.1805295228576</v>
+        <v>187.5284317969613</v>
       </c>
       <c r="AD2" t="n">
-        <v>113262.4766037238</v>
+        <v>151518.4361996087</v>
       </c>
       <c r="AE2" t="n">
-        <v>154970.7172769606</v>
+        <v>207314.2089298471</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.021768021677132e-06</v>
+        <v>6.28393320302613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.877314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>140180.5295228576</v>
+        <v>187528.4317969613</v>
       </c>
     </row>
   </sheetData>
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.0299600465638</v>
+        <v>160.4034894963662</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.7032631512906</v>
+        <v>219.4711308313515</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.5070218962043</v>
+        <v>198.525114134537</v>
       </c>
       <c r="AD2" t="n">
-        <v>124029.9600465638</v>
+        <v>160403.4894963662</v>
       </c>
       <c r="AE2" t="n">
-        <v>169703.2631512906</v>
+        <v>219471.1308313515</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.681903223370547e-06</v>
+        <v>6.00030980749483e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.41087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>153507.0218962043</v>
+        <v>198525.114134537</v>
       </c>
     </row>
   </sheetData>
@@ -13313,28 +13313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.7671489526894</v>
+        <v>221.1678758027742</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.9653439638438</v>
+        <v>302.6116449112642</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.4907567505344</v>
+        <v>273.7308142391337</v>
       </c>
       <c r="AD2" t="n">
-        <v>179767.1489526894</v>
+        <v>221167.8758027742</v>
       </c>
       <c r="AE2" t="n">
-        <v>245965.3439638438</v>
+        <v>302611.6449112642</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.07542516499859e-06</v>
+        <v>4.543574105270906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.4224537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>222490.7567505344</v>
+        <v>273730.8142391337</v>
       </c>
     </row>
     <row r="3">
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.3364587477801</v>
+        <v>163.4399899586438</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.3320928973771</v>
+        <v>223.6258047247836</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.3123282419656</v>
+        <v>202.2832717827027</v>
       </c>
       <c r="AD3" t="n">
-        <v>130336.4587477801</v>
+        <v>163439.9899586439</v>
       </c>
       <c r="AE3" t="n">
-        <v>178332.0928973771</v>
+        <v>223625.8047247836</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.835030807787238e-06</v>
+        <v>5.665800901120689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.356481481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>161312.3282419656</v>
+        <v>202283.2717827026</v>
       </c>
     </row>
     <row r="4">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.1045782689861</v>
+        <v>161.2081094798499</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.2783355626752</v>
+        <v>220.5720473900816</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.5500172213114</v>
+        <v>199.5209607620484</v>
       </c>
       <c r="AD4" t="n">
-        <v>128104.5782689861</v>
+        <v>161208.1094798499</v>
       </c>
       <c r="AE4" t="n">
-        <v>175278.3355626751</v>
+        <v>220572.0473900816</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.892418064108177e-06</v>
+        <v>5.750583732047574e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.234953703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>158550.0172213113</v>
+        <v>199520.9607620484</v>
       </c>
     </row>
   </sheetData>
@@ -13822,28 +13822,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.0552017582995</v>
+        <v>286.5873999341056</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.6669440141002</v>
+        <v>392.121523933607</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.0173269012809</v>
+        <v>354.6979960353982</v>
       </c>
       <c r="AD2" t="n">
-        <v>227055.2017582995</v>
+        <v>286587.3999341056</v>
       </c>
       <c r="AE2" t="n">
-        <v>310666.9440141002</v>
+        <v>392121.523933607</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.585817497435625e-06</v>
+        <v>3.755044049846857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.94444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>281017.3269012809</v>
+        <v>354697.9960353982</v>
       </c>
     </row>
     <row r="3">
@@ -13928,28 +13928,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.063247107001</v>
+        <v>192.622820455962</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.3231550149304</v>
+        <v>263.5550408668117</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.7274012732218</v>
+        <v>238.4017176683833</v>
       </c>
       <c r="AD3" t="n">
-        <v>150063.247107001</v>
+        <v>192622.820455962</v>
       </c>
       <c r="AE3" t="n">
-        <v>205323.1550149304</v>
+        <v>263555.0408668118</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.442596735949739e-06</v>
+        <v>4.999232313251102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.975694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>185727.4012732218</v>
+        <v>238401.7176683833</v>
       </c>
     </row>
     <row r="4">
@@ -14034,28 +14034,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.5565397948431</v>
+        <v>170.5872198116486</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.8426821965733</v>
+        <v>233.4049599231872</v>
       </c>
       <c r="AC4" t="n">
-        <v>169.0106788431363</v>
+        <v>211.1291181341043</v>
       </c>
       <c r="AD4" t="n">
-        <v>136556.5397948431</v>
+        <v>170587.2198116486</v>
       </c>
       <c r="AE4" t="n">
-        <v>186842.6821965733</v>
+        <v>233404.9599231872</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.745840325383337e-06</v>
+        <v>5.43959325801464e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.246527777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>169010.6788431363</v>
+        <v>211129.1181341043</v>
       </c>
     </row>
     <row r="5">
@@ -14140,28 +14140,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.7936729943622</v>
+        <v>169.8243530111677</v>
       </c>
       <c r="AB5" t="n">
-        <v>185.7988941848479</v>
+        <v>232.3611719114618</v>
       </c>
       <c r="AC5" t="n">
-        <v>168.066508494284</v>
+        <v>210.1849477852519</v>
       </c>
       <c r="AD5" t="n">
-        <v>135793.6729943622</v>
+        <v>169824.3530111677</v>
       </c>
       <c r="AE5" t="n">
-        <v>185798.8941848479</v>
+        <v>232361.1719114618</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.761480242951379e-06</v>
+        <v>5.462305061713938e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.211805555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>168066.508494284</v>
+        <v>210184.9477852519</v>
       </c>
     </row>
   </sheetData>
@@ -14437,28 +14437,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.6217514630642</v>
+        <v>181.2304839386097</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.6683959117405</v>
+        <v>247.9675434493623</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.5667104072431</v>
+        <v>224.3018691272602</v>
       </c>
       <c r="AD2" t="n">
-        <v>138621.7514630642</v>
+        <v>181230.4839386097</v>
       </c>
       <c r="AE2" t="n">
-        <v>189668.3959117405</v>
+        <v>247967.5434493623</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.261648985803785e-06</v>
+        <v>5.436974533413652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.17013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>171566.7104072431</v>
+        <v>224301.8691272602</v>
       </c>
     </row>
   </sheetData>
@@ -14734,28 +14734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.4882072650238</v>
+        <v>163.1155712895309</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.9620130951419</v>
+        <v>223.1819207893619</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.8365157050632</v>
+        <v>201.8817515070826</v>
       </c>
       <c r="AD2" t="n">
-        <v>123488.2072650238</v>
+        <v>163115.571289531</v>
       </c>
       <c r="AE2" t="n">
-        <v>168962.0130951419</v>
+        <v>223181.9207893619</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.86548131984427e-06</v>
+        <v>5.882901616813081e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.802083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>152836.5157050632</v>
+        <v>201881.7515070825</v>
       </c>
     </row>
     <row r="3">
@@ -14840,28 +14840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.1765490300875</v>
+        <v>150.8614615873299</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.0626120811686</v>
+        <v>206.4153072816534</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.5001452440003</v>
+        <v>186.7153200604545</v>
       </c>
       <c r="AD3" t="n">
-        <v>119176.5490300875</v>
+        <v>150861.4615873299</v>
       </c>
       <c r="AE3" t="n">
-        <v>163062.6120811686</v>
+        <v>206415.3072816534</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.018976547835592e-06</v>
+        <v>6.116507020695779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.466435185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>147500.1452440003</v>
+        <v>186715.3200604545</v>
       </c>
     </row>
   </sheetData>
@@ -15137,28 +15137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.067750043962</v>
+        <v>195.8988558091174</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.1705367163644</v>
+        <v>268.0374569654761</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.9212784754338</v>
+        <v>242.4563382657031</v>
       </c>
       <c r="AD2" t="n">
-        <v>155067.750043962</v>
+        <v>195898.8558091173</v>
       </c>
       <c r="AE2" t="n">
-        <v>212170.5367163644</v>
+        <v>268037.4569654761</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.354974165199208e-06</v>
+        <v>5.008676809391256e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.762731481481483</v>
       </c>
       <c r="AH2" t="n">
-        <v>191921.2784754338</v>
+        <v>242456.3382657031</v>
       </c>
     </row>
     <row r="3">
@@ -15243,28 +15243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.2970290820031</v>
+        <v>156.8766623481068</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.0686787878327</v>
+        <v>214.6455703344728</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.8375627772591</v>
+        <v>194.1600983587622</v>
       </c>
       <c r="AD3" t="n">
-        <v>124297.0290820031</v>
+        <v>156876.6623481068</v>
       </c>
       <c r="AE3" t="n">
-        <v>170068.6787878327</v>
+        <v>214645.5703344728</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.961841023052703e-06</v>
+        <v>5.914674831327875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.269675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>153837.562777259</v>
+        <v>194160.0983587622</v>
       </c>
     </row>
     <row r="4">
@@ -15349,28 +15349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.7075602277596</v>
+        <v>157.2871934938633</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.6303856128124</v>
+        <v>215.2072771594525</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.3456610912233</v>
+        <v>194.6681966727265</v>
       </c>
       <c r="AD4" t="n">
-        <v>124707.5602277596</v>
+        <v>157287.1934938633</v>
       </c>
       <c r="AE4" t="n">
-        <v>170630.3856128124</v>
+        <v>215207.2771594525</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.95867141439389e-06</v>
+        <v>5.90994288866527e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.275462962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>154345.6610912233</v>
+        <v>194668.1966727265</v>
       </c>
     </row>
   </sheetData>
